--- a/Auto/flujos/Flujos - Pruebas.xlsx
+++ b/Auto/flujos/Flujos - Pruebas.xlsx
@@ -14,15 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Flujos</t>
   </si>
   <si>
-    <t>CPF012-PN-Rectificatoria</t>
-  </si>
-  <si>
-    <t>CPF012-PN</t>
+    <t>CPF010-PN</t>
   </si>
 </sst>
 </file>
@@ -364,10 +361,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,11 +381,6 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
